--- a/results/BTECH(AG) 2021 Batch 3rd Sem.xlsx
+++ b/results/BTECH(AG) 2021 Batch 3rd Sem.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4349F5C-C7F0-4178-812A-3D7ACB7BE61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B1C4D6-6A1E-4F16-9B1A-0F38F0915D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ODD!$A$1:$I$231</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ODD!$A$1:$H$229</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ODD!$A$1:$I$229</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ODD!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -1242,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.109375" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1256,10 +1256,10 @@
     <col min="4" max="4" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="6.109375" style="10"/>
+    <col min="11" max="16384" width="6.109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,7 +1281,7 @@
       <c r="F1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1311,10 +1311,10 @@
         <v>20</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>99</v>
@@ -1340,10 +1340,10 @@
         <v>20</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>99</v>
@@ -1369,10 +1369,10 @@
         <v>20</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>97</v>
@@ -1398,10 +1398,10 @@
         <v>20</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>99</v>
@@ -1427,10 +1427,10 @@
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>99</v>
@@ -1456,10 +1456,10 @@
         <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>100</v>
@@ -1485,10 +1485,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>100</v>
@@ -1514,10 +1514,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>99</v>
@@ -1543,10 +1543,10 @@
         <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>99</v>
@@ -1572,10 +1572,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>99</v>
@@ -1601,10 +1601,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>97</v>
@@ -1630,10 +1630,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>99</v>
@@ -1659,10 +1659,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>99</v>
@@ -1688,10 +1688,10 @@
         <v>20</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>97</v>
@@ -1717,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>98</v>
@@ -1746,10 +1746,10 @@
         <v>20</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>99</v>
@@ -1775,10 +1775,10 @@
         <v>20</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>99</v>
@@ -1804,10 +1804,10 @@
         <v>20</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>99</v>
@@ -1833,10 +1833,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>99</v>
@@ -1862,10 +1862,10 @@
         <v>20</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>97</v>
@@ -1891,10 +1891,10 @@
         <v>20</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>99</v>
@@ -1920,10 +1920,10 @@
         <v>29</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>96</v>
@@ -1949,10 +1949,10 @@
         <v>41</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>99</v>
@@ -1978,10 +1978,10 @@
         <v>41</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>99</v>
@@ -2007,10 +2007,10 @@
         <v>41</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>96</v>
@@ -2036,10 +2036,10 @@
         <v>41</v>
       </c>
       <c r="G27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>99</v>
@@ -2065,10 +2065,10 @@
         <v>41</v>
       </c>
       <c r="G28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>97</v>
@@ -2094,10 +2094,10 @@
         <v>41</v>
       </c>
       <c r="G29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>97</v>
@@ -2123,10 +2123,10 @@
         <v>41</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>99</v>
@@ -2152,10 +2152,10 @@
         <v>41</v>
       </c>
       <c r="G31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>97</v>
@@ -2181,10 +2181,10 @@
         <v>41</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>97</v>
@@ -2210,10 +2210,10 @@
         <v>41</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>96</v>
@@ -2239,10 +2239,10 @@
         <v>41</v>
       </c>
       <c r="G34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>96</v>
@@ -2268,10 +2268,10 @@
         <v>41</v>
       </c>
       <c r="G35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>97</v>
@@ -2297,10 +2297,10 @@
         <v>41</v>
       </c>
       <c r="G36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>97</v>
@@ -2326,10 +2326,10 @@
         <v>41</v>
       </c>
       <c r="G37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>96</v>
@@ -2355,10 +2355,10 @@
         <v>41</v>
       </c>
       <c r="G38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>98</v>
@@ -2384,10 +2384,10 @@
         <v>41</v>
       </c>
       <c r="G39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>99</v>
@@ -2413,10 +2413,10 @@
         <v>41</v>
       </c>
       <c r="G40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>101</v>
@@ -2442,10 +2442,10 @@
         <v>41</v>
       </c>
       <c r="G41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>98</v>
@@ -2471,10 +2471,10 @@
         <v>41</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>99</v>
@@ -2500,10 +2500,10 @@
         <v>41</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>97</v>
@@ -2529,10 +2529,10 @@
         <v>41</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>99</v>
@@ -2558,10 +2558,10 @@
         <v>41</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>99</v>
@@ -2587,10 +2587,10 @@
         <v>41</v>
       </c>
       <c r="G46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>96</v>
@@ -2616,10 +2616,10 @@
         <v>41</v>
       </c>
       <c r="G47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>97</v>
@@ -2645,10 +2645,10 @@
         <v>31</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>99</v>
@@ -2674,10 +2674,10 @@
         <v>31</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>99</v>
@@ -2703,10 +2703,10 @@
         <v>31</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>96</v>
@@ -2732,10 +2732,10 @@
         <v>31</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>99</v>
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>97</v>
@@ -2790,10 +2790,10 @@
         <v>31</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>97</v>
@@ -2819,10 +2819,10 @@
         <v>31</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>100</v>
@@ -2848,10 +2848,10 @@
         <v>31</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>99</v>
@@ -2877,10 +2877,10 @@
         <v>31</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>97</v>
@@ -2906,10 +2906,10 @@
         <v>31</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>97</v>
@@ -2935,10 +2935,10 @@
         <v>31</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>97</v>
@@ -2964,10 +2964,10 @@
         <v>31</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>99</v>
@@ -2993,10 +2993,10 @@
         <v>31</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>99</v>
@@ -3022,10 +3022,10 @@
         <v>31</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>96</v>
@@ -3051,10 +3051,10 @@
         <v>31</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>100</v>
@@ -3080,10 +3080,10 @@
         <v>31</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>100</v>
@@ -3109,10 +3109,10 @@
         <v>31</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>100</v>
@@ -3138,10 +3138,10 @@
         <v>31</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>98</v>
@@ -3167,10 +3167,10 @@
         <v>31</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>99</v>
@@ -3196,10 +3196,10 @@
         <v>31</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>97</v>
@@ -3225,10 +3225,10 @@
         <v>31</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>99</v>
@@ -3254,10 +3254,10 @@
         <v>31</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>99</v>
@@ -3283,10 +3283,10 @@
         <v>31</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>97</v>
@@ -3312,10 +3312,10 @@
         <v>31</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>97</v>
@@ -3341,10 +3341,10 @@
         <v>16</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>99</v>
@@ -3370,10 +3370,10 @@
         <v>16</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>99</v>
@@ -3399,10 +3399,10 @@
         <v>16</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>96</v>
@@ -3428,10 +3428,10 @@
         <v>16</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>100</v>
@@ -3457,10 +3457,10 @@
         <v>16</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>97</v>
@@ -3486,10 +3486,10 @@
         <v>16</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>100</v>
@@ -3515,10 +3515,10 @@
         <v>16</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>100</v>
@@ -3544,10 +3544,10 @@
         <v>16</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>96</v>
@@ -3573,10 +3573,10 @@
         <v>16</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>96</v>
@@ -3602,10 +3602,10 @@
         <v>16</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>97</v>
@@ -3631,10 +3631,10 @@
         <v>16</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>97</v>
@@ -3660,10 +3660,10 @@
         <v>16</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>97</v>
@@ -3689,10 +3689,10 @@
         <v>16</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>97</v>
@@ -3718,10 +3718,10 @@
         <v>16</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>97</v>
@@ -3747,10 +3747,10 @@
         <v>16</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>102</v>
@@ -3776,10 +3776,10 @@
         <v>16</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>101</v>
@@ -3805,10 +3805,10 @@
         <v>16</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>100</v>
@@ -3834,10 +3834,10 @@
         <v>16</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>98</v>
@@ -3863,10 +3863,10 @@
         <v>16</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>99</v>
@@ -3892,10 +3892,10 @@
         <v>16</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>97</v>
@@ -3921,10 +3921,10 @@
         <v>16</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>99</v>
@@ -3950,10 +3950,10 @@
         <v>16</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>99</v>
@@ -3979,10 +3979,10 @@
         <v>16</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>97</v>
@@ -4008,10 +4008,10 @@
         <v>16</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>99</v>
@@ -4037,10 +4037,10 @@
         <v>43</v>
       </c>
       <c r="G96" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>99</v>
@@ -4066,10 +4066,10 @@
         <v>43</v>
       </c>
       <c r="G97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>99</v>
@@ -4095,10 +4095,10 @@
         <v>43</v>
       </c>
       <c r="G98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>99</v>
@@ -4124,10 +4124,10 @@
         <v>43</v>
       </c>
       <c r="G99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>99</v>
@@ -4153,10 +4153,10 @@
         <v>43</v>
       </c>
       <c r="G100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>99</v>
@@ -4182,10 +4182,10 @@
         <v>43</v>
       </c>
       <c r="G101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>99</v>
@@ -4211,10 +4211,10 @@
         <v>45</v>
       </c>
       <c r="G102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>97</v>
@@ -4240,10 +4240,10 @@
         <v>45</v>
       </c>
       <c r="G103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>97</v>
@@ -4269,10 +4269,10 @@
         <v>45</v>
       </c>
       <c r="G104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>95</v>
@@ -4298,10 +4298,10 @@
         <v>45</v>
       </c>
       <c r="G105" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>97</v>
@@ -4327,10 +4327,10 @@
         <v>45</v>
       </c>
       <c r="G106" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>96</v>
@@ -4356,10 +4356,10 @@
         <v>45</v>
       </c>
       <c r="G107" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>99</v>
@@ -4385,10 +4385,10 @@
         <v>45</v>
       </c>
       <c r="G108" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>100</v>
@@ -4414,10 +4414,10 @@
         <v>45</v>
       </c>
       <c r="G109" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>96</v>
@@ -4443,10 +4443,10 @@
         <v>45</v>
       </c>
       <c r="G110" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>96</v>
@@ -4472,10 +4472,10 @@
         <v>45</v>
       </c>
       <c r="G111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>96</v>
@@ -4501,10 +4501,10 @@
         <v>45</v>
       </c>
       <c r="G112" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H112" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>96</v>
@@ -4530,10 +4530,10 @@
         <v>45</v>
       </c>
       <c r="G113" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H113" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>96</v>
@@ -4559,10 +4559,10 @@
         <v>45</v>
       </c>
       <c r="G114" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>96</v>
@@ -4588,10 +4588,10 @@
         <v>45</v>
       </c>
       <c r="G115" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>96</v>
@@ -4617,10 +4617,10 @@
         <v>45</v>
       </c>
       <c r="G116" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>99</v>
@@ -4646,10 +4646,10 @@
         <v>45</v>
       </c>
       <c r="G117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>97</v>
@@ -4675,10 +4675,10 @@
         <v>45</v>
       </c>
       <c r="G118" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>99</v>
@@ -4704,10 +4704,10 @@
         <v>45</v>
       </c>
       <c r="G119" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>98</v>
@@ -4733,10 +4733,10 @@
         <v>45</v>
       </c>
       <c r="G120" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>97</v>
@@ -4762,10 +4762,10 @@
         <v>45</v>
       </c>
       <c r="G121" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>95</v>
@@ -4791,10 +4791,10 @@
         <v>45</v>
       </c>
       <c r="G122" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H122" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H122" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>97</v>
@@ -4820,10 +4820,10 @@
         <v>45</v>
       </c>
       <c r="G123" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H123" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>97</v>
@@ -4849,10 +4849,10 @@
         <v>45</v>
       </c>
       <c r="G124" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H124" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H124" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>96</v>
@@ -4878,10 +4878,10 @@
         <v>45</v>
       </c>
       <c r="G125" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>97</v>
@@ -4907,10 +4907,10 @@
         <v>47</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>99</v>
@@ -4936,10 +4936,10 @@
         <v>24</v>
       </c>
       <c r="G127" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>96</v>
@@ -4965,10 +4965,10 @@
         <v>24</v>
       </c>
       <c r="G128" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H128" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>96</v>
@@ -4994,10 +4994,10 @@
         <v>37</v>
       </c>
       <c r="G129" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>96</v>
@@ -5023,10 +5023,10 @@
         <v>37</v>
       </c>
       <c r="G130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H130" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>96</v>
@@ -5052,10 +5052,10 @@
         <v>37</v>
       </c>
       <c r="G131" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>96</v>
@@ -5081,10 +5081,10 @@
         <v>34</v>
       </c>
       <c r="G132" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H132" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>99</v>
@@ -5110,10 +5110,10 @@
         <v>34</v>
       </c>
       <c r="G133" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H133" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>97</v>
@@ -5139,10 +5139,10 @@
         <v>34</v>
       </c>
       <c r="G134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H134" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>97</v>
@@ -5168,10 +5168,10 @@
         <v>34</v>
       </c>
       <c r="G135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H135" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H135" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>97</v>
@@ -5197,10 +5197,10 @@
         <v>34</v>
       </c>
       <c r="G136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H136" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H136" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>99</v>
@@ -5226,10 +5226,10 @@
         <v>34</v>
       </c>
       <c r="G137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H137" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>97</v>
@@ -5255,10 +5255,10 @@
         <v>34</v>
       </c>
       <c r="G138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>97</v>
@@ -5284,10 +5284,10 @@
         <v>34</v>
       </c>
       <c r="G139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H139" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>97</v>
@@ -5313,10 +5313,10 @@
         <v>34</v>
       </c>
       <c r="G140" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H140" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>97</v>
@@ -5342,10 +5342,10 @@
         <v>34</v>
       </c>
       <c r="G141" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H141" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H141" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>97</v>
@@ -5371,10 +5371,10 @@
         <v>34</v>
       </c>
       <c r="G142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H142" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>97</v>
@@ -5400,10 +5400,10 @@
         <v>34</v>
       </c>
       <c r="G143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H143" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>97</v>
@@ -5429,10 +5429,10 @@
         <v>34</v>
       </c>
       <c r="G144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H144" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>96</v>
@@ -5458,10 +5458,10 @@
         <v>34</v>
       </c>
       <c r="G145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>98</v>
@@ -5487,10 +5487,10 @@
         <v>34</v>
       </c>
       <c r="G146" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H146" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>99</v>
@@ -5516,10 +5516,10 @@
         <v>34</v>
       </c>
       <c r="G147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H147" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H147" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>99</v>
@@ -5545,10 +5545,10 @@
         <v>34</v>
       </c>
       <c r="G148" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H148" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>98</v>
@@ -5574,10 +5574,10 @@
         <v>34</v>
       </c>
       <c r="G149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H149" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>97</v>
@@ -5603,10 +5603,10 @@
         <v>34</v>
       </c>
       <c r="G150" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H150" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H150" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>96</v>
@@ -5632,10 +5632,10 @@
         <v>34</v>
       </c>
       <c r="G151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>99</v>
@@ -5661,10 +5661,10 @@
         <v>34</v>
       </c>
       <c r="G152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H152" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H152" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>97</v>
@@ -5690,10 +5690,10 @@
         <v>34</v>
       </c>
       <c r="G153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H153" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>97</v>
@@ -5719,10 +5719,10 @@
         <v>34</v>
       </c>
       <c r="G154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H154" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>97</v>
@@ -5748,10 +5748,10 @@
         <v>18</v>
       </c>
       <c r="G155" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>97</v>
@@ -5777,10 +5777,10 @@
         <v>18</v>
       </c>
       <c r="G156" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H156" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>96</v>
@@ -5806,10 +5806,10 @@
         <v>18</v>
       </c>
       <c r="G157" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H157" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>97</v>
@@ -5835,10 +5835,10 @@
         <v>18</v>
       </c>
       <c r="G158" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H158" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>96</v>
@@ -5864,10 +5864,10 @@
         <v>18</v>
       </c>
       <c r="G159" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H159" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H159" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>96</v>
@@ -5893,10 +5893,10 @@
         <v>18</v>
       </c>
       <c r="G160" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H160" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>96</v>
@@ -5922,10 +5922,10 @@
         <v>18</v>
       </c>
       <c r="G161" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H161" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>96</v>
@@ -5951,10 +5951,10 @@
         <v>32</v>
       </c>
       <c r="G162" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H162" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H162" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>96</v>
@@ -5980,10 +5980,10 @@
         <v>32</v>
       </c>
       <c r="G163" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H163" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H163" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>96</v>
@@ -6008,11 +6008,11 @@
       <c r="F164" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G164" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H164" s="8">
         <v>3</v>
-      </c>
-      <c r="H164" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>98</v>
@@ -6037,11 +6037,11 @@
       <c r="F165" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" s="8">
         <v>3</v>
-      </c>
-      <c r="H165" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>98</v>
@@ -6066,11 +6066,11 @@
       <c r="F166" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G166" s="8">
+      <c r="G166" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H166" s="8">
         <v>3</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>96</v>
@@ -6095,11 +6095,11 @@
       <c r="F167" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G167" s="8">
+      <c r="G167" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H167" s="8">
         <v>3</v>
-      </c>
-      <c r="H167" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>96</v>
@@ -6124,11 +6124,11 @@
       <c r="F168" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G168" s="8">
+      <c r="G168" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" s="8">
         <v>3</v>
-      </c>
-      <c r="H168" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>96</v>
@@ -6153,11 +6153,11 @@
       <c r="F169" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G169" s="8">
+      <c r="G169" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H169" s="8">
         <v>3</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>95</v>
@@ -6182,11 +6182,11 @@
       <c r="F170" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G170" s="8">
+      <c r="G170" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H170" s="8">
         <v>3</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>98</v>
@@ -6211,11 +6211,11 @@
       <c r="F171" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G171" s="8">
+      <c r="G171" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H171" s="8">
         <v>3</v>
-      </c>
-      <c r="H171" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>95</v>
@@ -6240,11 +6240,11 @@
       <c r="F172" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G172" s="8">
+      <c r="G172" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H172" s="8">
         <v>3</v>
-      </c>
-      <c r="H172" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>95</v>
@@ -6269,11 +6269,11 @@
       <c r="F173" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G173" s="8">
+      <c r="G173" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H173" s="8">
         <v>3</v>
-      </c>
-      <c r="H173" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>96</v>
@@ -6298,11 +6298,11 @@
       <c r="F174" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G174" s="8">
+      <c r="G174" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H174" s="8">
         <v>3</v>
-      </c>
-      <c r="H174" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I174" s="2" t="s">
         <v>96</v>
@@ -6327,11 +6327,11 @@
       <c r="F175" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H175" s="8">
         <v>3</v>
-      </c>
-      <c r="H175" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>96</v>
@@ -6356,11 +6356,11 @@
       <c r="F176" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G176" s="8">
+      <c r="G176" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H176" s="8">
         <v>3</v>
-      </c>
-      <c r="H176" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>98</v>
@@ -6385,11 +6385,11 @@
       <c r="F177" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G177" s="8">
+      <c r="G177" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H177" s="8">
         <v>3</v>
-      </c>
-      <c r="H177" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>95</v>
@@ -6414,11 +6414,11 @@
       <c r="F178" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G178" s="8">
+      <c r="G178" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H178" s="8">
         <v>3</v>
-      </c>
-      <c r="H178" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>98</v>
@@ -6443,11 +6443,11 @@
       <c r="F179" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G179" s="8">
+      <c r="G179" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H179" s="8">
         <v>3</v>
-      </c>
-      <c r="H179" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>96</v>
@@ -6472,11 +6472,11 @@
       <c r="F180" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G180" s="8">
+      <c r="G180" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H180" s="8">
         <v>3</v>
-      </c>
-      <c r="H180" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>95</v>
@@ -6501,11 +6501,11 @@
       <c r="F181" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G181" s="8">
+      <c r="G181" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H181" s="8">
         <v>3</v>
-      </c>
-      <c r="H181" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>98</v>
@@ -6530,11 +6530,11 @@
       <c r="F182" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G182" s="8">
+      <c r="G182" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H182" s="8">
         <v>3</v>
-      </c>
-      <c r="H182" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>98</v>
@@ -6559,11 +6559,11 @@
       <c r="F183" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H183" s="8">
         <v>3</v>
-      </c>
-      <c r="H183" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>95</v>
@@ -6588,11 +6588,11 @@
       <c r="F184" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G184" s="8">
+      <c r="G184" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H184" s="8">
         <v>3</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>96</v>
@@ -6618,10 +6618,10 @@
         <v>22</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>99</v>
@@ -6647,10 +6647,10 @@
         <v>22</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>100</v>
@@ -6676,10 +6676,10 @@
         <v>22</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>96</v>
@@ -6705,10 +6705,10 @@
         <v>22</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>99</v>
@@ -6734,10 +6734,10 @@
         <v>22</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>97</v>
@@ -6763,10 +6763,10 @@
         <v>22</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>100</v>
@@ -6792,10 +6792,10 @@
         <v>22</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>99</v>
@@ -6821,10 +6821,10 @@
         <v>22</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>97</v>
@@ -6850,10 +6850,10 @@
         <v>22</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>99</v>
@@ -6879,10 +6879,10 @@
         <v>22</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>99</v>
@@ -6908,10 +6908,10 @@
         <v>22</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>96</v>
@@ -6937,10 +6937,10 @@
         <v>22</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I196" s="2" t="s">
         <v>99</v>
@@ -6966,10 +6966,10 @@
         <v>22</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I197" s="2" t="s">
         <v>97</v>
@@ -6995,10 +6995,10 @@
         <v>22</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I198" s="2" t="s">
         <v>97</v>
@@ -7024,10 +7024,10 @@
         <v>22</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I199" s="2" t="s">
         <v>101</v>
@@ -7053,10 +7053,10 @@
         <v>22</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>98</v>
@@ -7082,10 +7082,10 @@
         <v>22</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>101</v>
@@ -7111,10 +7111,10 @@
         <v>22</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>99</v>
@@ -7140,10 +7140,10 @@
         <v>22</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>96</v>
@@ -7169,10 +7169,10 @@
         <v>22</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>99</v>
@@ -7198,10 +7198,10 @@
         <v>22</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>99</v>
@@ -7227,10 +7227,10 @@
         <v>22</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>97</v>
@@ -7256,10 +7256,10 @@
         <v>22</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>97</v>
@@ -7285,10 +7285,10 @@
         <v>49</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>99</v>
@@ -7314,10 +7314,10 @@
         <v>49</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>99</v>
@@ -7343,10 +7343,10 @@
         <v>49</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>95</v>
@@ -7372,10 +7372,10 @@
         <v>49</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>99</v>
@@ -7401,10 +7401,10 @@
         <v>49</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>96</v>
@@ -7430,10 +7430,10 @@
         <v>49</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>99</v>
@@ -7459,10 +7459,10 @@
         <v>49</v>
       </c>
       <c r="G214" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>99</v>
@@ -7488,10 +7488,10 @@
         <v>49</v>
       </c>
       <c r="G215" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>96</v>
@@ -7517,10 +7517,10 @@
         <v>49</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>97</v>
@@ -7546,10 +7546,10 @@
         <v>49</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I217" s="2" t="s">
         <v>96</v>
@@ -7575,10 +7575,10 @@
         <v>49</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I218" s="2" t="s">
         <v>96</v>
@@ -7604,10 +7604,10 @@
         <v>49</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>97</v>
@@ -7633,10 +7633,10 @@
         <v>49</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>97</v>
@@ -7662,10 +7662,10 @@
         <v>49</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>95</v>
@@ -7691,10 +7691,10 @@
         <v>49</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>100</v>
@@ -7720,10 +7720,10 @@
         <v>49</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>100</v>
@@ -7749,10 +7749,10 @@
         <v>49</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H224" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>100</v>
@@ -7778,10 +7778,10 @@
         <v>49</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H225" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>97</v>
@@ -7807,10 +7807,10 @@
         <v>49</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H226" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>97</v>
@@ -7836,10 +7836,10 @@
         <v>49</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H227" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>97</v>
@@ -7865,10 +7865,10 @@
         <v>49</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>97</v>
@@ -7894,10 +7894,10 @@
         <v>49</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H229" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>96</v>
@@ -7923,10 +7923,10 @@
         <v>49</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H230" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>97</v>
@@ -7952,10 +7952,10 @@
         <v>26</v>
       </c>
       <c r="G231" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H231" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="H231" s="8" t="s">
-        <v>3</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>96</v>
